--- a/EcoStruxureConfigurator/_Res/IO---Modbus.xlsx
+++ b/EcoStruxureConfigurator/_Res/IO---Modbus.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
   <si>
     <t>Тип</t>
   </si>
@@ -198,166 +198,142 @@
     <t>При аварии</t>
   </si>
   <si>
-    <t>Модуль А8 канал 1</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Модуль А8 канал 2</t>
-  </si>
-  <si>
-    <t>Резерв вход UI-16 A8:3</t>
-  </si>
-  <si>
-    <t>Резерв вход UI-16 A8:4</t>
-  </si>
-  <si>
-    <t>Модуль А8 канал 5</t>
-  </si>
-  <si>
-    <t>Модуль А8 канал 6</t>
-  </si>
-  <si>
-    <t>Резерв вход UI-16 A8:7</t>
-  </si>
-  <si>
-    <t>Резерв вход UI-16 A8:8</t>
-  </si>
-  <si>
-    <t>Резерв вход UI-16 A8:9</t>
-  </si>
-  <si>
-    <t>Резерв вход UI-16 A8:10</t>
-  </si>
-  <si>
-    <t>Модуль А8 канал 11</t>
-  </si>
-  <si>
-    <t>Модуль А8 канал 12</t>
-  </si>
-  <si>
-    <t>Резерв вход UI-16 A8:13</t>
-  </si>
-  <si>
-    <t>Резерв вход UI-16 A8:14</t>
-  </si>
-  <si>
-    <t>Резерв вход UI-16 A8:15</t>
-  </si>
-  <si>
-    <t>Резерв вход UI-16 A8:16</t>
-  </si>
-  <si>
-    <t>Резерв вход UI-16 A9:1</t>
-  </si>
-  <si>
-    <t>Резерв вход UI-16 A9:2</t>
-  </si>
-  <si>
-    <t>Резерв вход UI-16 A9:3</t>
-  </si>
-  <si>
-    <t>Резерв вход UI-16 A9:4</t>
-  </si>
-  <si>
-    <t>Резерв вход UI-16 A9:5</t>
-  </si>
-  <si>
-    <t>Резерв вход UI-16 A9:6</t>
-  </si>
-  <si>
-    <t>Резерв вход UI-16 A9:7</t>
-  </si>
-  <si>
-    <t>Резерв вход UI-16 A9:8</t>
-  </si>
-  <si>
-    <t>Резерв вход UI-16 A9:9</t>
-  </si>
-  <si>
-    <t>Резерв вход UI-16 A9:10</t>
-  </si>
-  <si>
-    <t>Резерв вход UI-16 A9:11</t>
-  </si>
-  <si>
-    <t>Резерв вход UI-16 A9:12</t>
-  </si>
-  <si>
-    <t>Резерв вход UI-16 A9:13</t>
-  </si>
-  <si>
-    <t>Резерв вход UI-16 A9:14</t>
-  </si>
-  <si>
-    <t>Резерв вход UI-16 A9:15</t>
-  </si>
-  <si>
-    <t>Резерв вход UI-16 A9:16</t>
-  </si>
-  <si>
-    <t>Модуль А10 входной канал 1</t>
-  </si>
-  <si>
-    <t>Модуль А10 входной канал 2</t>
-  </si>
-  <si>
-    <t>Модуль А10 входной канал 3</t>
-  </si>
-  <si>
-    <t>Модуль А10 входной канал 4</t>
-  </si>
-  <si>
-    <t>Модуль А10 входной канал 5</t>
-  </si>
-  <si>
-    <t>Модуль А10 входной канал 6</t>
-  </si>
-  <si>
-    <t>Модуль А10 входной канал 7</t>
-  </si>
-  <si>
-    <t>Модуль А10 входной канал 8</t>
-  </si>
-  <si>
-    <t>Резерв вход UI-8.DO-FC-4 A11:1</t>
-  </si>
-  <si>
-    <t>Резерв вход UI-8.DO-FC-4 A11:2</t>
-  </si>
-  <si>
-    <t>Резерв вход UI-8.DO-FC-4 A11:3</t>
-  </si>
-  <si>
-    <t>Резерв вход UI-8.DO-FC-4 A11:4</t>
-  </si>
-  <si>
-    <t>Резерв вход UI-8.DO-FC-4 A11:5</t>
-  </si>
-  <si>
-    <t>Резерв вход UI-8.DO-FC-4 A11:6</t>
-  </si>
-  <si>
-    <t>Резерв вход UI-8.DO-FC-4 A11:7</t>
-  </si>
-  <si>
-    <t>Резерв вход UI-8.DO-FC-4 A11:8</t>
-  </si>
-  <si>
-    <t>Модуль А11 выходной канал 1</t>
-  </si>
-  <si>
-    <t>Модуль А11 выходной канал 2</t>
-  </si>
-  <si>
-    <t>Модуль А11 выходной канал 3</t>
-  </si>
-  <si>
-    <t>Модуль А11 выходной канал 4</t>
+    <t>Общая авария</t>
+  </si>
+  <si>
+    <t>ST_avarCom</t>
+  </si>
+  <si>
+    <t>Авария установки. Заблокировано по пожару</t>
+  </si>
+  <si>
+    <t>ST_avarBlockFire</t>
+  </si>
+  <si>
+    <t>Авария установки. Заблокировано по питанию</t>
+  </si>
+  <si>
+    <t>ST_avarBlockU</t>
+  </si>
+  <si>
+    <t>Резерв1</t>
+  </si>
+  <si>
+    <t>ST_rez1</t>
+  </si>
+  <si>
+    <t>Резерв2</t>
+  </si>
+  <si>
+    <t>ST_rez2</t>
+  </si>
+  <si>
+    <t>Резерв3</t>
+  </si>
+  <si>
+    <t>ST_rez3</t>
+  </si>
+  <si>
+    <t>Авария вентилятора. Сигнал авария</t>
+  </si>
+  <si>
+    <t>ST_avarIn</t>
+  </si>
+  <si>
+    <t>Авария вентилятора. Авария статуса</t>
+  </si>
+  <si>
+    <t>ST_avarStatus</t>
+  </si>
+  <si>
+    <t>Авария вентилятора. Отсутствие перепада давления</t>
+  </si>
+  <si>
+    <t>ST_avarPDS</t>
+  </si>
+  <si>
+    <t>Авария вентилятора. Перегрев обмоток</t>
+  </si>
+  <si>
+    <t>ST_avarOverHeat</t>
+  </si>
+  <si>
+    <t>Авария заслонки. Авария статуса</t>
+  </si>
+  <si>
+    <t>ST_avarZaslNotMove</t>
+  </si>
+  <si>
+    <t>Заблокирован для запуска в авто</t>
+  </si>
+  <si>
+    <t>ST_blocked</t>
+  </si>
+  <si>
+    <t>Статус фильтра</t>
+  </si>
+  <si>
+    <t>outStatusCal</t>
+  </si>
+  <si>
+    <t>avarCom</t>
+  </si>
+  <si>
+    <t>Активировать систему</t>
+  </si>
+  <si>
+    <t>SP_enSystem</t>
+  </si>
+  <si>
+    <t>Включение вентустановки оператором</t>
+  </si>
+  <si>
+    <t>SP_manualRun</t>
+  </si>
+  <si>
+    <t>Включение от глобального расписания</t>
+  </si>
+  <si>
+    <t>SP_raspGlobal</t>
+  </si>
+  <si>
+    <t>Сброс аварий</t>
+  </si>
+  <si>
+    <t>SP_resetAvar</t>
+  </si>
+  <si>
+    <t>Сброс пожара</t>
+  </si>
+  <si>
+    <t>SP_resetFire</t>
+  </si>
+  <si>
+    <t>SP_rez1</t>
+  </si>
+  <si>
+    <t>SP_rez2</t>
+  </si>
+  <si>
+    <t>SP_rez3</t>
+  </si>
+  <si>
+    <t>Резерв4</t>
+  </si>
+  <si>
+    <t>SP_rez4</t>
+  </si>
+  <si>
+    <t>Принудительно вкл</t>
+  </si>
+  <si>
+    <t>SP_forceEn</t>
+  </si>
+  <si>
+    <t>Принудительно пуск</t>
+  </si>
+  <si>
+    <t>SP_forceRun</t>
   </si>
   <si>
     <t>Аналоговое значение</t>
@@ -486,160 +462,136 @@
     <t>Резерв вход DI-16 A6:16</t>
   </si>
   <si>
-    <t>Резерв вход UI-16 A8:1</t>
-  </si>
-  <si>
-    <t>Резерв вход UI-16 A8:2</t>
-  </si>
-  <si>
-    <t>Модуль А8 канал 3</t>
-  </si>
-  <si>
-    <t>Модуль А8 канал 4</t>
-  </si>
-  <si>
-    <t>Резерв вход UI-16 A8:5</t>
-  </si>
-  <si>
-    <t>Резерв вход UI-16 A8:6</t>
-  </si>
-  <si>
-    <t>Модуль А8 канал 7</t>
-  </si>
-  <si>
-    <t>Модуль А8 канал 8</t>
-  </si>
-  <si>
-    <t>Модуль А8 канал 9</t>
-  </si>
-  <si>
-    <t>Модуль А8 канал 10</t>
-  </si>
-  <si>
-    <t>Резерв вход UI-16 A8:11</t>
-  </si>
-  <si>
-    <t>Резерв вход UI-16 A8:12</t>
-  </si>
-  <si>
-    <t>Модуль А8 канал 13</t>
-  </si>
-  <si>
-    <t>Модуль А8 канал 14</t>
-  </si>
-  <si>
-    <t>Модуль А8 канал 15</t>
-  </si>
-  <si>
-    <t>Модуль А8 канал 16</t>
-  </si>
-  <si>
-    <t>Модуль А9 канал 1</t>
-  </si>
-  <si>
-    <t>Модуль А9 канал 2</t>
-  </si>
-  <si>
-    <t>Модуль А9 канал 3</t>
-  </si>
-  <si>
-    <t>Модуль А9 канал 4</t>
-  </si>
-  <si>
-    <t>Модуль А9 канал 5</t>
-  </si>
-  <si>
-    <t>Модуль А9 канал 6</t>
-  </si>
-  <si>
-    <t>Модуль А9 канал 7</t>
-  </si>
-  <si>
-    <t>Модуль А9 канал 8</t>
-  </si>
-  <si>
-    <t>Модуль А9 канал 9</t>
-  </si>
-  <si>
-    <t>Модуль А9 канал 10</t>
-  </si>
-  <si>
-    <t>Модуль А9 канал 11</t>
-  </si>
-  <si>
-    <t>Модуль А9 канал 12</t>
-  </si>
-  <si>
-    <t>Модуль А9 канал 13</t>
-  </si>
-  <si>
-    <t>Модуль А9 канал 14</t>
-  </si>
-  <si>
-    <t>Модуль А9 канал 15</t>
-  </si>
-  <si>
-    <t>Модуль А9 канал 16</t>
-  </si>
-  <si>
-    <t>Резерв вход UI-8.AO-4 A10:1</t>
-  </si>
-  <si>
-    <t>Резерв вход UI-8.AO-4 A10:2</t>
-  </si>
-  <si>
-    <t>Резерв вход UI-8.AO-4 A10:3</t>
-  </si>
-  <si>
-    <t>Резерв вход UI-8.AO-4 A10:4</t>
-  </si>
-  <si>
-    <t>Резерв вход UI-8.AO-4 A10:5</t>
-  </si>
-  <si>
-    <t>Резерв вход UI-8.AO-4 A10:6</t>
-  </si>
-  <si>
-    <t>Резерв вход UI-8.AO-4 A10:7</t>
-  </si>
-  <si>
-    <t>Резерв вход UI-8.AO-4 A10:8</t>
-  </si>
-  <si>
-    <t>Модуль А10 выходной канал 1</t>
-  </si>
-  <si>
-    <t>Модуль А10 выходной канал 2</t>
-  </si>
-  <si>
-    <t>Модуль А10 выходной канал 3</t>
-  </si>
-  <si>
-    <t>Модуль А10 выходной канал 4</t>
-  </si>
-  <si>
-    <t>Модуль А11 входной канал 1</t>
-  </si>
-  <si>
-    <t>Модуль А11 входной канал 2</t>
-  </si>
-  <si>
-    <t>Модуль А11 входной канал 3</t>
-  </si>
-  <si>
-    <t>Модуль А11 входной канал 4</t>
-  </si>
-  <si>
-    <t>Модуль А11 входной канал 5</t>
-  </si>
-  <si>
-    <t>Модуль А11 входной канал 6</t>
-  </si>
-  <si>
-    <t>Модуль А11 входной канал 7</t>
-  </si>
-  <si>
-    <t>Модуль А11 входной канал 8</t>
+    <t>ST_rez4</t>
+  </si>
+  <si>
+    <t>Резерв5</t>
+  </si>
+  <si>
+    <t>ST_rez5</t>
+  </si>
+  <si>
+    <t>Резерв6</t>
+  </si>
+  <si>
+    <t>ST_rez6</t>
+  </si>
+  <si>
+    <t>Резерв7</t>
+  </si>
+  <si>
+    <t>ST_rez7</t>
+  </si>
+  <si>
+    <t>Статус вентилятора</t>
+  </si>
+  <si>
+    <t>ST_statusVent</t>
+  </si>
+  <si>
+    <t>Статус перепада давления</t>
+  </si>
+  <si>
+    <t>ST_statusPDS</t>
+  </si>
+  <si>
+    <t>Резерв8</t>
+  </si>
+  <si>
+    <t>ST_rez8</t>
+  </si>
+  <si>
+    <t>Резерв9</t>
+  </si>
+  <si>
+    <t>ST_rez9</t>
+  </si>
+  <si>
+    <t>Время включения(час)</t>
+  </si>
+  <si>
+    <t>SP_HH_on</t>
+  </si>
+  <si>
+    <t>Время включения(минута)</t>
+  </si>
+  <si>
+    <t>SP_MM_on</t>
+  </si>
+  <si>
+    <t>Время отключения(час)</t>
+  </si>
+  <si>
+    <t>SP_HH_off</t>
+  </si>
+  <si>
+    <t>Время отключения(минута)</t>
+  </si>
+  <si>
+    <t>SP_MM_off</t>
+  </si>
+  <si>
+    <t>Приоритет</t>
+  </si>
+  <si>
+    <t>SP_priority</t>
+  </si>
+  <si>
+    <t>SP_rez5</t>
+  </si>
+  <si>
+    <t>SP_rez6</t>
+  </si>
+  <si>
+    <t>SP_rez7</t>
+  </si>
+  <si>
+    <t>SP_rez8</t>
+  </si>
+  <si>
+    <t>SP_rez9</t>
+  </si>
+  <si>
+    <t>Время пуска</t>
+  </si>
+  <si>
+    <t>SP_ptRun</t>
+  </si>
+  <si>
+    <t>Время движения заслонки</t>
+  </si>
+  <si>
+    <t>SP_ptMoveZasl</t>
+  </si>
+  <si>
+    <t>Задержка перепада давления</t>
+  </si>
+  <si>
+    <t>SP_ptPDS</t>
+  </si>
+  <si>
+    <t>Принудительно RPM</t>
+  </si>
+  <si>
+    <t>SP_forceRPM</t>
+  </si>
+  <si>
+    <t>Уставка RPM</t>
+  </si>
+  <si>
+    <t>SP_RPM</t>
+  </si>
+  <si>
+    <t>Резерв10</t>
+  </si>
+  <si>
+    <t>SP_rez10</t>
+  </si>
+  <si>
+    <t>Задержка на срабатывание</t>
+  </si>
+  <si>
+    <t>ptWait</t>
   </si>
 </sst>
 </file>
@@ -739,7 +691,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E229"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -747,7 +699,7 @@
   <cols>
     <col min="1" max="1" width="39.8882337297712" customWidth="1" style="2"/>
     <col min="2" max="2" width="69.79345703125" customWidth="1" style="6"/>
-    <col min="3" max="3" width="32.1078229631696" customWidth="1" style="2"/>
+    <col min="3" max="3" width="39.994633265904" customWidth="1" style="2"/>
     <col min="4" max="4" width="29.9627968924386" customWidth="1" style="2"/>
     <col min="5" max="5" width="29.140625" customWidth="1" style="2"/>
   </cols>
@@ -1528,10 +1480,10 @@
         <v>62</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="E46" s="4">
-        <v>44</v>
+        <v>500</v>
       </c>
     </row>
     <row r="47">
@@ -1539,33 +1491,33 @@
         <v>5</v>
       </c>
       <c r="B47" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="D47" s="4" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="E47" s="4">
-        <v>45</v>
+        <v>501</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48" s="9" t="s">
+      <c r="A48" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E48" s="5">
-        <v>46</v>
+      <c r="C48" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" s="4">
+        <v>502</v>
       </c>
     </row>
     <row r="49">
@@ -1573,118 +1525,118 @@
         <v>5</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E49" s="5">
-        <v>47</v>
+        <v>503</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C50" s="4" t="s">
+      <c r="A50" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" s="5">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" s="5">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E50" s="4">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E51" s="4">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E52" s="5">
-        <v>50</v>
+      <c r="D52" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E52" s="4">
+        <v>506</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E53" s="5">
-        <v>51</v>
+      <c r="A53" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" s="4">
+        <v>507</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E54" s="5">
-        <v>52</v>
+      <c r="A54" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E54" s="4">
+        <v>508</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E55" s="5">
-        <v>53</v>
+      <c r="A55" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" s="4">
+        <v>509</v>
       </c>
     </row>
     <row r="56">
@@ -1692,16 +1644,16 @@
         <v>5</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="E56" s="4">
-        <v>54</v>
+        <v>510</v>
       </c>
     </row>
     <row r="57">
@@ -1709,33 +1661,33 @@
         <v>5</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="E57" s="4">
-        <v>55</v>
+        <v>511</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E58" s="5">
-        <v>56</v>
+      <c r="A58" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" s="4">
+        <v>512</v>
       </c>
     </row>
     <row r="59">
@@ -1743,16 +1695,16 @@
         <v>5</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E59" s="5">
-        <v>57</v>
+        <v>513</v>
       </c>
     </row>
     <row r="60">
@@ -1760,16 +1712,16 @@
         <v>5</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E60" s="5">
-        <v>58</v>
+        <v>514</v>
       </c>
     </row>
     <row r="61">
@@ -1777,67 +1729,67 @@
         <v>5</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E61" s="5">
-        <v>59</v>
+        <v>515</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E62" s="5">
-        <v>60</v>
+      <c r="A62" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" s="4">
+        <v>516</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E63" s="5">
-        <v>61</v>
+      <c r="A63" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E63" s="4">
+        <v>517</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E64" s="5">
-        <v>62</v>
+      <c r="A64" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E64" s="4">
+        <v>518</v>
       </c>
     </row>
     <row r="65">
@@ -1845,16 +1797,16 @@
         <v>5</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E65" s="5">
-        <v>63</v>
+        <v>519</v>
       </c>
     </row>
     <row r="66">
@@ -1862,16 +1814,16 @@
         <v>5</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E66" s="5">
-        <v>64</v>
+        <v>520</v>
       </c>
     </row>
     <row r="67">
@@ -1879,135 +1831,135 @@
         <v>5</v>
       </c>
       <c r="B67" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E67" s="5">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E68" s="4">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E69" s="4">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E70" s="4">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E71" s="4">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E72" s="4">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E73" s="4">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E67" s="5">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E68" s="5">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E69" s="5">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E70" s="5">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E71" s="5">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E72" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E73" s="5">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E74" s="5">
-        <v>72</v>
+      <c r="D74" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E74" s="4">
+        <v>528</v>
       </c>
     </row>
     <row r="75">
@@ -2015,16 +1967,16 @@
         <v>5</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E75" s="5">
-        <v>73</v>
+        <v>529</v>
       </c>
     </row>
     <row r="76">
@@ -2032,16 +1984,16 @@
         <v>5</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E76" s="5">
-        <v>74</v>
+        <v>530</v>
       </c>
     </row>
     <row r="77">
@@ -2049,16 +2001,16 @@
         <v>5</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E77" s="5">
-        <v>75</v>
+        <v>531</v>
       </c>
     </row>
     <row r="78">
@@ -2066,16 +2018,16 @@
         <v>5</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="E78" s="4">
-        <v>76</v>
+        <v>532</v>
       </c>
     </row>
     <row r="79">
@@ -2083,16 +2035,16 @@
         <v>5</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="E79" s="4">
-        <v>77</v>
+        <v>533</v>
       </c>
     </row>
     <row r="80">
@@ -2100,67 +2052,67 @@
         <v>5</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="E80" s="4">
-        <v>78</v>
+        <v>534</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E81" s="4">
-        <v>79</v>
+      <c r="A81" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E81" s="5">
+        <v>535</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E82" s="4">
-        <v>80</v>
+      <c r="A82" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E82" s="5">
+        <v>536</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E83" s="4">
-        <v>81</v>
+      <c r="A83" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E83" s="5">
+        <v>537</v>
       </c>
     </row>
     <row r="84">
@@ -2168,16 +2120,16 @@
         <v>5</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="E84" s="4">
-        <v>82</v>
+        <v>538</v>
       </c>
     </row>
     <row r="85">
@@ -2185,101 +2137,101 @@
         <v>5</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="E85" s="4">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E86" s="4">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E87" s="4">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E88" s="4">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E89" s="4">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="8" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E86" s="5">
+      <c r="C90" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E87" s="5">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E88" s="5">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E89" s="5">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E90" s="5">
-        <v>88</v>
+      <c r="D90" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E90" s="4">
+        <v>544</v>
       </c>
     </row>
     <row r="91">
@@ -2287,16 +2239,16 @@
         <v>5</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E91" s="5">
-        <v>89</v>
+        <v>545</v>
       </c>
     </row>
     <row r="92">
@@ -2304,16 +2256,16 @@
         <v>5</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E92" s="5">
-        <v>90</v>
+        <v>546</v>
       </c>
     </row>
     <row r="93">
@@ -2321,16 +2273,16 @@
         <v>5</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E93" s="5">
-        <v>91</v>
+        <v>547</v>
       </c>
     </row>
     <row r="94">
@@ -2338,16 +2290,16 @@
         <v>5</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="E94" s="4">
-        <v>92</v>
+        <v>548</v>
       </c>
     </row>
     <row r="95">
@@ -2355,16 +2307,16 @@
         <v>5</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="E95" s="4">
-        <v>93</v>
+        <v>549</v>
       </c>
     </row>
     <row r="96">
@@ -2372,16 +2324,16 @@
         <v>5</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="E96" s="4">
-        <v>94</v>
+        <v>550</v>
       </c>
     </row>
     <row r="97">
@@ -2389,16 +2341,2260 @@
         <v>5</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="C97" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E97" s="4">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E98" s="4">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E99" s="5">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E100" s="5">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E101" s="5">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="D102" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E102" s="4">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E103" s="4">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E104" s="4">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E105" s="4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E106" s="4">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E107" s="4">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E108" s="4">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E109" s="5">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E110" s="5">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E111" s="5">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E112" s="4">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E113" s="4">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114" s="4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B115" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E97" s="4">
+      <c r="C115" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" s="4">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" s="4">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117" s="5">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" s="5">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119" s="5">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120" s="4">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E121" s="4">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122" s="4">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E123" s="4">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E124" s="4">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E125" s="4">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126" s="4">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127" s="5">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128" s="5">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E129" s="5">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E130" s="4">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E131" s="4">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E132" s="4">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E133" s="5">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E134" s="5">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E135" s="5">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E136" s="4">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E137" s="4">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E138" s="4">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E139" s="4">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E140" s="4">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E141" s="4">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E142" s="4">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E143" s="5">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E144" s="5">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E145" s="5">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E146" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E147" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E148" s="4">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C149" s="4" t="s">
         <v>95</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E149" s="4">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E150" s="4">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E151" s="5">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E152" s="5">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E153" s="5">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E154" s="5">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E155" s="4">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E156" s="4">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E157" s="5">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E158" s="5">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E159" s="5">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E160" s="4">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E161" s="4">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E162" s="4">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E163" s="4">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E164" s="4">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E165" s="5">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E166" s="5">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E167" s="5">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B168" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E168" s="5">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E169" s="4">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E170" s="4">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E171" s="5">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B172" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E172" s="5">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E173" s="5">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E174" s="4">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E175" s="4">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E176" s="4">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E177" s="4">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E178" s="4">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E179" s="5">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E180" s="5">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E181" s="5">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B182" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E182" s="5">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E183" s="4">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E184" s="4">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E185" s="5">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E186" s="5">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E187" s="5">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E188" s="4">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E189" s="4">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E190" s="4">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E191" s="4">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E192" s="4">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B193" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D193" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E193" s="5">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B194" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E194" s="5">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D195" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E195" s="5">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B196" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D196" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E196" s="5">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E197" s="4">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E198" s="4">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B199" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D199" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E199" s="5">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B200" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D200" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E200" s="5">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D201" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E201" s="5">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E202" s="4">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E203" s="4">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E204" s="4">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E205" s="4">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E206" s="4">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B207" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D207" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E207" s="5">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B208" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D208" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E208" s="5">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B209" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D209" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E209" s="5">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D210" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E210" s="5">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B211" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E211" s="4">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B212" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E212" s="4">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B213" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D213" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E213" s="5">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B214" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D214" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E214" s="5">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B215" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D215" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E215" s="5">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B216" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E216" s="4">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E217" s="4">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B218" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D218" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E218" s="4">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B219" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E219" s="4">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B220" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E220" s="4">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B221" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D221" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E221" s="5">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B222" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E222" s="5">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B223" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D223" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E223" s="5">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B224" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D224" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E224" s="5">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E225" s="4">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B226" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D226" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E226" s="4">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B227" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D227" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E227" s="5">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B228" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D228" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E228" s="5">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B229" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D229" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E229" s="5">
+        <v>1083</v>
       </c>
     </row>
   </sheetData>
@@ -2408,7 +4604,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E241"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2416,7 +4612,7 @@
   <cols>
     <col min="1" max="1" width="41.2847181047712" customWidth="1" style="2"/>
     <col min="2" max="2" width="72.8554905482701" customWidth="1" style="6"/>
-    <col min="3" max="3" width="31.5643583025251" customWidth="1" style="2"/>
+    <col min="3" max="3" width="34.8670294625419" customWidth="1" style="2"/>
     <col min="4" max="4" width="29.9627968924386" customWidth="1" style="2"/>
     <col min="5" max="5" width="29.140625" customWidth="1" style="2"/>
   </cols>
@@ -2440,13 +4636,13 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>28</v>
@@ -2457,13 +4653,13 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>32</v>
@@ -2474,13 +4670,13 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>36</v>
@@ -2491,13 +4687,13 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>41</v>
@@ -2508,13 +4704,13 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>12</v>
@@ -2525,13 +4721,13 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>16</v>
@@ -2542,10 +4738,10 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>115</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>123</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>7</v>
@@ -2559,10 +4755,10 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>7</v>
@@ -2576,10 +4772,10 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>7</v>
@@ -2593,10 +4789,10 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>7</v>
@@ -2610,10 +4806,10 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>7</v>
@@ -2627,10 +4823,10 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>7</v>
@@ -2644,10 +4840,10 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>7</v>
@@ -2661,10 +4857,10 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>7</v>
@@ -2678,10 +4874,10 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>7</v>
@@ -2695,10 +4891,10 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>7</v>
@@ -2712,10 +4908,10 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>7</v>
@@ -2729,10 +4925,10 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>7</v>
@@ -2746,10 +4942,10 @@
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>7</v>
@@ -2763,10 +4959,10 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>7</v>
@@ -2780,10 +4976,10 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>7</v>
@@ -2797,10 +4993,10 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>7</v>
@@ -2814,10 +5010,10 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>7</v>
@@ -2831,10 +5027,10 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>7</v>
@@ -2848,10 +5044,10 @@
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>7</v>
@@ -2865,10 +5061,10 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>7</v>
@@ -2882,10 +5078,10 @@
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>7</v>
@@ -2899,10 +5095,10 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>7</v>
@@ -2916,10 +5112,10 @@
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>7</v>
@@ -2933,10 +5129,10 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>7</v>
@@ -2950,10 +5146,10 @@
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>7</v>
@@ -2967,10 +5163,10 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>7</v>
@@ -2984,10 +5180,10 @@
     </row>
     <row r="34">
       <c r="A34" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>7</v>
@@ -3001,10 +5197,10 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>7</v>
@@ -3018,10 +5214,10 @@
     </row>
     <row r="36">
       <c r="A36" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>7</v>
@@ -3035,10 +5231,10 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>7</v>
@@ -3052,10 +5248,10 @@
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>7</v>
@@ -3069,10 +5265,10 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>7</v>
@@ -3086,10 +5282,10 @@
     </row>
     <row r="40">
       <c r="A40" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>7</v>
@@ -3103,10 +5299,10 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>7</v>
@@ -3120,886 +5316,3402 @@
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E42" s="5">
-        <v>80</v>
+        <v>500</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B43" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="5">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="5">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="5">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="4">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" s="5">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B44" s="8" t="s">
+      <c r="C47" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E44" s="4">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E45" s="4">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E46" s="5">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E47" s="5">
-        <v>90</v>
+      <c r="D47" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E47" s="4">
+        <v>507</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E48" s="4">
-        <v>92</v>
+      <c r="A48" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" s="5">
+        <v>508</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E49" s="4">
-        <v>94</v>
+      <c r="A49" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" s="5">
+        <v>509</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E50" s="4">
-        <v>96</v>
+      <c r="A50" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" s="5">
+        <v>510</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E51" s="4">
-        <v>98</v>
+      <c r="A51" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" s="5">
+        <v>511</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>7</v>
+        <v>161</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E52" s="5">
-        <v>100</v>
+        <v>513</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>7</v>
+        <v>163</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E53" s="5">
-        <v>102</v>
+        <v>515</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E54" s="4">
-        <v>104</v>
+      <c r="A54" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="5">
+        <v>517</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E55" s="4">
-        <v>106</v>
+      <c r="A55" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="5">
+        <v>518</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E56" s="4">
-        <v>108</v>
+      <c r="A56" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" s="5">
+        <v>519</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E57" s="4">
-        <v>110</v>
+      <c r="A57" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" s="5">
+        <v>521</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>62</v>
+        <v>157</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="E58" s="4">
-        <v>112</v>
+        <v>523</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>62</v>
+        <v>159</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="E59" s="4">
-        <v>114</v>
+        <v>524</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E60" s="4">
-        <v>116</v>
+      <c r="A60" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" s="5">
+        <v>525</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E61" s="4">
-        <v>118</v>
+      <c r="A61" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E61" s="5">
+        <v>526</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E62" s="4">
-        <v>120</v>
+      <c r="A62" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" s="5">
+        <v>527</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E63" s="4">
-        <v>122</v>
+      <c r="A63" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E63" s="5">
+        <v>528</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E64" s="4">
-        <v>124</v>
+      <c r="A64" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E64" s="5">
+        <v>530</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E65" s="4">
-        <v>126</v>
+      <c r="A65" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E65" s="5">
+        <v>532</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E66" s="4">
-        <v>128</v>
+      <c r="A66" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E66" s="5">
+        <v>534</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E67" s="4">
-        <v>130</v>
+      <c r="A67" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E67" s="5">
+        <v>535</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E68" s="4">
-        <v>132</v>
+      <c r="A68" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E68" s="5">
+        <v>536</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E69" s="4">
-        <v>134</v>
+      <c r="A69" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E69" s="5">
+        <v>538</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>62</v>
+        <v>157</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="E70" s="4">
-        <v>136</v>
+        <v>540</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>62</v>
+        <v>159</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="E71" s="4">
-        <v>138</v>
+        <v>541</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E72" s="4">
-        <v>140</v>
+      <c r="A72" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E72" s="5">
+        <v>542</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E73" s="4">
-        <v>142</v>
+      <c r="A73" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E73" s="5">
+        <v>543</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>7</v>
+        <v>153</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E74" s="5">
-        <v>144</v>
+        <v>544</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>7</v>
+        <v>155</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E75" s="5">
-        <v>146</v>
+        <v>545</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>7</v>
+        <v>161</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E76" s="5">
-        <v>148</v>
+        <v>547</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>7</v>
+        <v>163</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E77" s="5">
-        <v>150</v>
+        <v>549</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>193</v>
+        <v>101</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E78" s="5">
-        <v>152</v>
+        <v>551</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>7</v>
+        <v>151</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E79" s="5">
-        <v>154</v>
+        <v>552</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>7</v>
+        <v>153</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E80" s="5">
-        <v>156</v>
+        <v>553</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>7</v>
+        <v>155</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E81" s="5">
-        <v>158</v>
+        <v>555</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>62</v>
+        <v>157</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="E82" s="4">
-        <v>160</v>
+        <v>557</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>62</v>
+        <v>159</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="E83" s="4">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E84" s="5">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E85" s="5">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E86" s="5">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E87" s="5">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E88" s="5">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B89" s="9" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E84" s="4">
+      <c r="C89" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E89" s="5">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" s="5">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" s="5">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" s="5">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" s="5">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" s="4">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" s="4">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" s="5">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97" s="5">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" s="5">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" s="5">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" s="5">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101" s="5">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E102" s="5">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E103" s="5">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E104" s="5">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E105" s="5">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E106" s="4">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E107" s="4">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E108" s="5">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E109" s="5">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E110" s="5">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E111" s="5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E112" s="5">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E113" s="5">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B114" s="8" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E85" s="4">
+      <c r="C114" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E114" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B115" s="8" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E86" s="4">
+      <c r="C115" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E115" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B116" s="8" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E87" s="4">
+      <c r="C116" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E116" s="4">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B117" s="8" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E88" s="4">
+      <c r="C117" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E117" s="4">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B118" s="8" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E89" s="4">
+      <c r="C118" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E118" s="4">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C119" s="5" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E90" s="4">
+      <c r="D119" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E119" s="5">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E120" s="5">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C121" s="5" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E91" s="4">
+      <c r="D121" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E121" s="5">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E122" s="5">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C123" s="5" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E92" s="4">
+      <c r="D123" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E123" s="5">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C124" s="4" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E93" s="4">
+      <c r="D124" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E124" s="4">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C125" s="4" t="s">
         <v>182</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E125" s="4">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E126" s="4">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E127" s="5">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E128" s="5">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E129" s="5">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E130" s="4">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E131" s="4">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E132" s="5">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E133" s="5">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E134" s="5">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E135" s="4">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E136" s="4">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E137" s="4">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E138" s="4">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E139" s="4">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E140" s="5">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E141" s="5">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E142" s="5">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E143" s="5">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E144" s="5">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E145" s="4">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E146" s="4">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E147" s="4">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E148" s="5">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E149" s="5">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E150" s="5">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E151" s="4">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E152" s="4">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E153" s="5">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E154" s="5">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E155" s="5">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E156" s="4">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E157" s="4">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E158" s="4">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E159" s="4">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E160" s="4">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E161" s="5">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E162" s="5">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E163" s="5">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E164" s="5">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E165" s="5">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E166" s="4">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E167" s="4">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E168" s="4">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E169" s="5">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B170" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E170" s="5">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E171" s="5">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E172" s="4">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E173" s="4">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B174" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E174" s="5">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E175" s="5">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E176" s="5">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E177" s="4">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E178" s="4">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E179" s="4">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E180" s="4">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E181" s="4">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E182" s="4">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B183" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E183" s="5">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B184" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E184" s="5">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E185" s="5">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E186" s="5">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E187" s="5">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E188" s="4">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E189" s="4">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E190" s="4">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E191" s="5">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B192" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E192" s="5">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B193" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D193" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E193" s="5">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E194" s="4">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E195" s="4">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B196" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D196" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E196" s="5">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E197" s="5">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B198" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E198" s="5">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E199" s="4">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E200" s="4">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E201" s="4">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E202" s="4">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E203" s="4">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E204" s="4">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B205" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E205" s="5">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B206" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E206" s="5">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B207" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D207" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E207" s="5">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B208" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D208" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E208" s="5">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B209" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D209" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E209" s="5">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E210" s="4">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B211" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E211" s="4">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B212" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E212" s="4">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B213" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D213" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E213" s="5">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B214" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D214" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E214" s="5">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B215" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D215" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E215" s="5">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B216" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E216" s="4">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E217" s="4">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B218" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D218" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E218" s="5">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B219" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D219" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E219" s="5">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B220" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D220" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E220" s="5">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B221" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E221" s="4">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B222" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E222" s="4">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B223" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E223" s="4">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B224" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D224" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E224" s="4">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E225" s="4">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B226" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D226" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E226" s="5">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B227" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D227" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E227" s="5">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B228" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D228" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E228" s="5">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B229" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D229" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E229" s="5">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B230" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D230" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E230" s="5">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B231" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E231" s="4">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B232" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D232" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E232" s="4">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B233" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D233" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E233" s="4">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B234" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D234" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E234" s="5">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B235" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D235" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E235" s="5">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B236" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D236" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E236" s="5">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B237" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D237" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E237" s="4">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B238" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D238" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E238" s="4">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B239" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D239" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E239" s="5">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B240" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D240" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E240" s="5">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B241" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D241" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E241" s="5">
+        <v>1174</v>
       </c>
     </row>
   </sheetData>
